--- a/user-data/kenya-donor-percent/kenya-donor-percent.xlsx
+++ b/user-data/kenya-donor-percent/kenya-donor-percent.xlsx
@@ -172,7 +172,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 32</t>
+    <t xml:space="preserve">Source: 33</t>
   </si>
   <si>
     <t xml:space="preserve"/>

--- a/user-data/kenya-donor-percent/kenya-donor-percent.xlsx
+++ b/user-data/kenya-donor-percent/kenya-donor-percent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t xml:space="preserve">district_id</t>
   </si>
@@ -40,12 +40,21 @@
     <t xml:space="preserve">estimated</t>
   </si>
   <si>
+    <t xml:space="preserve">actual</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18975</t>
   </si>
   <si>
     <t xml:space="preserve">Bomet</t>
   </si>
   <si>
+    <t xml:space="preserve">d18987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bungoma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18988</t>
   </si>
   <si>
@@ -58,7 +67,16 @@
     <t xml:space="preserve">Elgeyo-Marakwet</t>
   </si>
   <si>
-    <t xml:space="preserve">actual</t>
+    <t xml:space="preserve">d18955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garissa</t>
   </si>
   <si>
     <t xml:space="preserve">d18968</t>
@@ -67,48 +85,174 @@
     <t xml:space="preserve">Homa Bay</t>
   </si>
   <si>
+    <t xml:space="preserve">d18956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isiolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kajiado</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18989</t>
   </si>
   <si>
     <t xml:space="preserve">Kakamega</t>
   </si>
   <si>
+    <t xml:space="preserve">d18977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kericho</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18943</t>
   </si>
   <si>
     <t xml:space="preserve">Kiambu</t>
   </si>
   <si>
+    <t xml:space="preserve">d18949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kilifi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirinyaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisii</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18970</t>
   </si>
   <si>
     <t xml:space="preserve">Kisumu</t>
   </si>
   <si>
+    <t xml:space="preserve">d18957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laikipia</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18951</t>
   </si>
   <si>
     <t xml:space="preserve">Lamu</t>
   </si>
   <si>
+    <t xml:space="preserve">d18958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machakos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makueni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandera</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18960</t>
   </si>
   <si>
     <t xml:space="preserve">Marsabit</t>
   </si>
   <si>
+    <t xml:space="preserve">d18961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mombasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murang'a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nairobi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18979</t>
   </si>
   <si>
     <t xml:space="preserve">Nakuru</t>
   </si>
   <si>
+    <t xml:space="preserve">d18980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nandi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narok</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18962</t>
   </si>
   <si>
     <t xml:space="preserve">Nithi</t>
   </si>
   <si>
+    <t xml:space="preserve">d18972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyamira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyandarua</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18948</t>
   </si>
   <si>
@@ -133,18 +277,42 @@
     <t xml:space="preserve">Taita Taveta</t>
   </si>
   <si>
+    <t xml:space="preserve">d18954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tana River</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18983</t>
   </si>
   <si>
     <t xml:space="preserve">Trans-Nzoia</t>
   </si>
   <si>
+    <t xml:space="preserve">d18984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkana</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18985</t>
   </si>
   <si>
     <t xml:space="preserve">Uasin Gishu</t>
   </si>
   <si>
+    <t xml:space="preserve">d18990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vihiga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wajir</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18986</t>
   </si>
   <si>
@@ -157,12 +325,12 @@
     <t xml:space="preserve">2016</t>
   </si>
   <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
     <t xml:space="preserve">2015</t>
   </si>
   <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
     <t xml:space="preserve">Name: kenya-donor-percent</t>
   </si>
   <si>
@@ -172,7 +340,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 33</t>
+    <t xml:space="preserve">Source: 34</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -530,77 +698,77 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -653,478 +821,1770 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2016</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3119559798</v>
+        <v>0.555499912641707</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2071740137</v>
+        <v>1.79037354626128</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6148904834</v>
+        <v>0.320806522133074</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>1.1179834764</v>
+        <v>0.152389311944134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
       <c r="C7" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>2.5685196006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>9.2383475513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2046255896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1921859457</v>
+        <v>0.279642917622212</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>8.6953467741</v>
+        <v>0.6148904834</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>17.8917354147</v>
+        <v>1.09428099796563</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>0.172034108</v>
+        <v>0.257556229549114</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n">
         <v>2016</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6000576582</v>
+        <v>0.135884274904987</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C15" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2288916556</v>
+        <v>0.135456994346305</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9210870983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1925374229</v>
+        <v>0.118639532891648</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2630409108</v>
+        <v>9.2383475513</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C19" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3540399771</v>
+        <v>0.384454701151602</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C20" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4450670586</v>
+        <v>0.173118735907426</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C21" t="n">
         <v>2016</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>1.9020529002</v>
+        <v>0.477415107383142</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3253487419</v>
+        <v>0.640292302694938</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C23" t="n">
         <v>2016</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>0.86744935</v>
+        <v>0.888953018477704</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C24" t="n">
         <v>2017</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>6.2192800074</v>
+        <v>1.61633263637981</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C25" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>0.483366406</v>
+        <v>0.2046255896</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C26" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5021946871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C27" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2098355129</v>
+        <v>0.103064651254656</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4935474836</v>
+        <v>0.353182144513791</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C29" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2640872941</v>
+        <v>0.237626770296163</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="n">
+        <v>8.6953467741</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.16676828011424</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0763468160859917</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.919862614329813</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.299575506035596</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.126644285083651</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.266213060336646</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.131198562493103</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="n">
+        <v>17.8917354147</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.21166063981463</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.101891672675976</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.975657629623541</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.5677271975258</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B44" t="s">
         <v>44</v>
       </c>
-      <c r="C30" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2.922511678</v>
+      <c r="C44" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.971660030830879</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.50529588224156</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.69008536739317</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.25410539658365</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.447496536223643</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.367209703803999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.142692587779892</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.175551222720188</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.158032154864506</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.13629749525928</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.487715773442211</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.2288916556</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.303908787827754</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.109151356692059</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.114053433195029</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.148997504051691</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.416905111060099</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.0262116080019234</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.371488060359066</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.174584376151755</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.9210870983</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.228212215698327</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.101015626432454</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.329971102783377</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.161872182851918</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.746376118598692</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0970573911741574</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.735293024576862</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.150861239950158</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.492144605992852</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.342032393404673</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.366934881972962</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.167057719942216</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.382704420402439</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>79</v>
+      </c>
+      <c r="B83" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.179321460858615</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.476003131103828</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.771286968932163</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.468627082950441</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.224894532461796</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.3253487419</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.382188901759087</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.780434882285613</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>87</v>
+      </c>
+      <c r="B91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.393366852591403</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>87</v>
+      </c>
+      <c r="B92" t="s">
+        <v>88</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.0817897578451925</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>89</v>
+      </c>
+      <c r="B94" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.0902309592120447</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>91</v>
+      </c>
+      <c r="B95" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.102791931314291</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.0543584149342658</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97" t="s">
+        <v>94</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.2098355129</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>93</v>
+      </c>
+      <c r="B98" t="s">
+        <v>94</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.269462069997683</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>93</v>
+      </c>
+      <c r="B99" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.125648004719529</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>95</v>
+      </c>
+      <c r="B100" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D100" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.315770731284456</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>95</v>
+      </c>
+      <c r="B101" t="s">
+        <v>96</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.145097286032534</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>97</v>
+      </c>
+      <c r="B102" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>97</v>
+      </c>
+      <c r="B103" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.753897057452592</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>99</v>
+      </c>
+      <c r="B104" t="s">
+        <v>100</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.2640872941</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>99</v>
+      </c>
+      <c r="B105" t="s">
+        <v>100</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.574117517520175</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>99</v>
+      </c>
+      <c r="B106" t="s">
+        <v>100</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.11748543715003</v>
       </c>
     </row>
   </sheetData>
@@ -1146,16 +2606,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
@@ -1165,57 +2625,67 @@
       <c r="B2" t="n">
         <v>8.7611607539</v>
       </c>
-      <c r="C2"/>
-      <c r="D2"/>
+      <c r="C2" t="n">
+        <v>0.555499912641707</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.79037354626128</v>
+      </c>
       <c r="E2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="n">
-        <v>0.3119559798</v>
-      </c>
-      <c r="D3"/>
+        <v>0.320806522133074</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.152389311944134</v>
+      </c>
       <c r="E3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4"/>
       <c r="C4" t="n">
-        <v>0.2071740137</v>
-      </c>
-      <c r="D4"/>
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
       <c r="E4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5"/>
       <c r="C5" t="n">
-        <v>1.1179834764</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6148904834</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.5685196006</v>
-      </c>
+        <v>0.279642917622212</v>
+      </c>
+      <c r="E5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6"/>
-      <c r="C6"/>
+      <c r="C6" t="n">
+        <v>1.09428099796563</v>
+      </c>
       <c r="D6" t="n">
-        <v>9.2383475513</v>
-      </c>
-      <c r="E6"/>
+        <v>0.257556229549114</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6148904834</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1223,10 +2693,10 @@
       </c>
       <c r="B7"/>
       <c r="C7" t="n">
-        <v>0.1921859457</v>
+        <v>0.135884274904987</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2046255896</v>
+        <v>0.135456994346305</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1234,11 +2704,13 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="n">
-        <v>8.6953467741</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8"/>
+      <c r="B8"/>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.118639532891648</v>
+      </c>
       <c r="E8"/>
     </row>
     <row r="9">
@@ -1247,12 +2719,14 @@
       </c>
       <c r="B9"/>
       <c r="C9" t="n">
-        <v>0.172034108</v>
+        <v>0.384454701151602</v>
       </c>
       <c r="D9" t="n">
-        <v>17.8917354147</v>
-      </c>
-      <c r="E9"/>
+        <v>0.173118735907426</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9.2383475513</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1260,9 +2734,11 @@
       </c>
       <c r="B10"/>
       <c r="C10" t="n">
-        <v>0.6000576582</v>
-      </c>
-      <c r="D10"/>
+        <v>0.477415107383142</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.640292302694938</v>
+      </c>
       <c r="E10"/>
     </row>
     <row r="11">
@@ -1270,9 +2746,11 @@
         <v>25</v>
       </c>
       <c r="B11"/>
-      <c r="C11"/>
+      <c r="C11" t="n">
+        <v>0.888953018477704</v>
+      </c>
       <c r="D11" t="n">
-        <v>0.2288916556</v>
+        <v>1.61633263637981</v>
       </c>
       <c r="E11"/>
     </row>
@@ -1282,12 +2760,14 @@
       </c>
       <c r="B12"/>
       <c r="C12" t="n">
-        <v>0.1925374229</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9210870983</v>
-      </c>
-      <c r="E12"/>
+        <v>0.103064651254656</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.2046255896</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1295,21 +2775,27 @@
       </c>
       <c r="B13"/>
       <c r="C13" t="n">
-        <v>0.2630409108</v>
-      </c>
-      <c r="D13"/>
+        <v>0.353182144513791</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.237626770296163</v>
+      </c>
       <c r="E13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14" t="n">
-        <v>0.3540399771</v>
-      </c>
+      <c r="B14" t="n">
+        <v>8.6953467741</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.16676828011424</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0763468160859917</v>
+      </c>
+      <c r="E14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1317,9 +2803,11 @@
       </c>
       <c r="B15"/>
       <c r="C15" t="n">
-        <v>0.4450670586</v>
-      </c>
-      <c r="D15"/>
+        <v>0.919862614329813</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
       <c r="E15"/>
     </row>
     <row r="16">
@@ -1328,9 +2816,11 @@
       </c>
       <c r="B16"/>
       <c r="C16" t="n">
-        <v>1.9020529002</v>
-      </c>
-      <c r="D16"/>
+        <v>0.299575506035596</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.126644285083651</v>
+      </c>
       <c r="E16"/>
     </row>
     <row r="17">
@@ -1339,14 +2829,12 @@
       </c>
       <c r="B17"/>
       <c r="C17" t="n">
-        <v>0.86744935</v>
+        <v>0.266213060336646</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3253487419</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6.2192800074</v>
-      </c>
+        <v>0.131198562493103</v>
+      </c>
+      <c r="E17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1354,11 +2842,13 @@
       </c>
       <c r="B18"/>
       <c r="C18" t="n">
-        <v>0.483366406</v>
-      </c>
-      <c r="D18"/>
+        <v>0.21166063981463</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.101891672675976</v>
+      </c>
       <c r="E18" t="n">
-        <v>0.5021946871</v>
+        <v>17.8917354147</v>
       </c>
     </row>
     <row r="19">
@@ -1366,13 +2856,13 @@
         <v>41</v>
       </c>
       <c r="B19"/>
-      <c r="C19"/>
+      <c r="C19" t="n">
+        <v>0.975657629623541</v>
+      </c>
       <c r="D19" t="n">
-        <v>0.2098355129</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.4935474836</v>
-      </c>
+        <v>1.5677271975258</v>
+      </c>
+      <c r="E19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1380,12 +2870,386 @@
       </c>
       <c r="B20"/>
       <c r="C20" t="n">
-        <v>2.922511678</v>
+        <v>0.971660030830879</v>
       </c>
       <c r="D20" t="n">
+        <v>1.50529588224156</v>
+      </c>
+      <c r="E20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21" t="n">
+        <v>0.69008536739317</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.25410539658365</v>
+      </c>
+      <c r="E21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22" t="n">
+        <v>0.447496536223643</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.367209703803999</v>
+      </c>
+      <c r="E22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.142692587779892</v>
+      </c>
+      <c r="E23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24" t="n">
+        <v>0.175551222720188</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.158032154864506</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25" t="n">
+        <v>0.13629749525928</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.487715773442211</v>
+      </c>
+      <c r="E25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26" t="n">
+        <v>0.303908787827754</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.109151356692059</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.2288916556</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.114053433195029</v>
+      </c>
+      <c r="E27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28" t="n">
+        <v>0.148997504051691</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.416905111060099</v>
+      </c>
+      <c r="E28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0262116080019234</v>
+      </c>
+      <c r="E29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30" t="n">
+        <v>0.371488060359066</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.174584376151755</v>
+      </c>
+      <c r="E30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32" t="n">
+        <v>0.228212215698327</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.101015626432454</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9210870983</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33" t="n">
+        <v>0.329971102783377</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.161872182851918</v>
+      </c>
+      <c r="E33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34" t="n">
+        <v>0.746376118598692</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0970573911741574</v>
+      </c>
+      <c r="E34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35" t="n">
+        <v>0.735293024576862</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.150861239950158</v>
+      </c>
+      <c r="E35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36" t="n">
+        <v>0.492144605992852</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.342032393404673</v>
+      </c>
+      <c r="E36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37" t="n">
+        <v>0.366934881972962</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.167057719942216</v>
+      </c>
+      <c r="E37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38" t="n">
+        <v>0.382704420402439</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.179321460858615</v>
+      </c>
+      <c r="E38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39"/>
+      <c r="C39" t="n">
+        <v>0.476003131103828</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.771286968932163</v>
+      </c>
+      <c r="E39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40" t="n">
+        <v>0.468627082950441</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.224894532461796</v>
+      </c>
+      <c r="E40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41" t="n">
+        <v>0.382188901759087</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.780434882285613</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.3253487419</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42" t="n">
+        <v>0.393366852591403</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.0817897578451925</v>
+      </c>
+      <c r="E42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0902309592120447</v>
+      </c>
+      <c r="E43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44" t="n">
+        <v>0.102791931314291</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.0543584149342658</v>
+      </c>
+      <c r="E44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45"/>
+      <c r="C45" t="n">
+        <v>0.269462069997683</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.125648004719529</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.2098355129</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46" t="n">
+        <v>0.315770731284456</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.145097286032534</v>
+      </c>
+      <c r="E46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47"/>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.753897057452592</v>
+      </c>
+      <c r="E47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48"/>
+      <c r="C48" t="n">
+        <v>0.574117517520175</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.11748543715003</v>
+      </c>
+      <c r="E48" t="n">
         <v>0.2640872941</v>
       </c>
-      <c r="E20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
